--- a/_posts/도서/마케팅/file/Create Ad Group(s).xlsx
+++ b/_posts/도서/마케팅/file/Create Ad Group(s).xlsx
@@ -961,12 +961,13 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
